--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_726.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_726.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d226148-Reviews-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Studio-6-Van-Nuys-California.h846043.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_726.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_726.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,513 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r505482487-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>226148</t>
+  </si>
+  <si>
+    <t>505482487</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Worst Stay Ever!</t>
+  </si>
+  <si>
+    <t>I booked a 2 night stay at your Studio 6 Van Nuys location. We checked in &amp; pretty much dropped off our luggage &amp; went sight-seeing all day. I noticed the comforters were stained, had cigarette burn holes, even though it was supposed to be a non-smoking room. The room smelled really bad as well. I turned the comforters over to make sure the sheets were clean &amp; they were, as that was my main concern. We arrived back to the room at about 11pm. There were drugged up people hanging out around the rooms so we quickly went into the room. As we turn on the lights in the room, cockroaches ran in every direction, specially in the kitchen area. I immediately began taking pictures &amp; a video as proof. We were so disgusted that we couldn't even eat the late dinner we had brought back to the hotel. We had to throw everything out. I opened the refrigerator door to grab a water bottle I had stored before leaving &amp; the roaches were INSIDE the refrigerator as well!! Immediately I call the front desk &amp; the man that answered was completely rude &amp; unprofessional. He blamed me for not checking the room when we checked in! My response was "Were the cockroaches supposed to greet me when I first walked in? Do they introduce themselves??" I told him I wanted a refund &amp; he told me there was...I booked a 2 night stay at your Studio 6 Van Nuys location. We checked in &amp; pretty much dropped off our luggage &amp; went sight-seeing all day. I noticed the comforters were stained, had cigarette burn holes, even though it was supposed to be a non-smoking room. The room smelled really bad as well. I turned the comforters over to make sure the sheets were clean &amp; they were, as that was my main concern. We arrived back to the room at about 11pm. There were drugged up people hanging out around the rooms so we quickly went into the room. As we turn on the lights in the room, cockroaches ran in every direction, specially in the kitchen area. I immediately began taking pictures &amp; a video as proof. We were so disgusted that we couldn't even eat the late dinner we had brought back to the hotel. We had to throw everything out. I opened the refrigerator door to grab a water bottle I had stored before leaving &amp; the roaches were INSIDE the refrigerator as well!! Immediately I call the front desk &amp; the man that answered was completely rude &amp; unprofessional. He blamed me for not checking the room when we checked in! My response was "Were the cockroaches supposed to greet me when I first walked in? Do they introduce themselves??" I told him I wanted a refund &amp; he told me there was nothing he could do. That I needed to call in the morning &amp; he hung up. We had nowhere to go &amp; we had a small child with us. All of the nearby hotels were all booked. We had to sleep with one eye open. It was the worst night of our lives! The next morning, the more I looked around, the more I saw how this location should not even be in business. There were so many safety hazards &amp; lack of basic cleanliness. I took several pictures. We packed up our things &amp; I went to the front desk to explain to the  manager what was going on. He offered not one apology. The most decent thing he said was that he would give me a refund for both nights ONLY because the man I spoke to the night before should have told me to leave if I was unsatisfied! This place needs to be out of business!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>I booked a 2 night stay at your Studio 6 Van Nuys location. We checked in &amp; pretty much dropped off our luggage &amp; went sight-seeing all day. I noticed the comforters were stained, had cigarette burn holes, even though it was supposed to be a non-smoking room. The room smelled really bad as well. I turned the comforters over to make sure the sheets were clean &amp; they were, as that was my main concern. We arrived back to the room at about 11pm. There were drugged up people hanging out around the rooms so we quickly went into the room. As we turn on the lights in the room, cockroaches ran in every direction, specially in the kitchen area. I immediately began taking pictures &amp; a video as proof. We were so disgusted that we couldn't even eat the late dinner we had brought back to the hotel. We had to throw everything out. I opened the refrigerator door to grab a water bottle I had stored before leaving &amp; the roaches were INSIDE the refrigerator as well!! Immediately I call the front desk &amp; the man that answered was completely rude &amp; unprofessional. He blamed me for not checking the room when we checked in! My response was "Were the cockroaches supposed to greet me when I first walked in? Do they introduce themselves??" I told him I wanted a refund &amp; he told me there was...I booked a 2 night stay at your Studio 6 Van Nuys location. We checked in &amp; pretty much dropped off our luggage &amp; went sight-seeing all day. I noticed the comforters were stained, had cigarette burn holes, even though it was supposed to be a non-smoking room. The room smelled really bad as well. I turned the comforters over to make sure the sheets were clean &amp; they were, as that was my main concern. We arrived back to the room at about 11pm. There were drugged up people hanging out around the rooms so we quickly went into the room. As we turn on the lights in the room, cockroaches ran in every direction, specially in the kitchen area. I immediately began taking pictures &amp; a video as proof. We were so disgusted that we couldn't even eat the late dinner we had brought back to the hotel. We had to throw everything out. I opened the refrigerator door to grab a water bottle I had stored before leaving &amp; the roaches were INSIDE the refrigerator as well!! Immediately I call the front desk &amp; the man that answered was completely rude &amp; unprofessional. He blamed me for not checking the room when we checked in! My response was "Were the cockroaches supposed to greet me when I first walked in? Do they introduce themselves??" I told him I wanted a refund &amp; he told me there was nothing he could do. That I needed to call in the morning &amp; he hung up. We had nowhere to go &amp; we had a small child with us. All of the nearby hotels were all booked. We had to sleep with one eye open. It was the worst night of our lives! The next morning, the more I looked around, the more I saw how this location should not even be in business. There were so many safety hazards &amp; lack of basic cleanliness. I took several pictures. We packed up our things &amp; I went to the front desk to explain to the  manager what was going on. He offered not one apology. The most decent thing he said was that he would give me a refund for both nights ONLY because the man I spoke to the night before should have told me to leave if I was unsatisfied! This place needs to be out of business!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r494953667-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>494953667</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Clean and decent</t>
+  </si>
+  <si>
+    <t>Well priced for the time of the year, (summer) great central location to a lot of different areas and things to do in LA. Close to Universal Studios, Griffith Observatory, Hollywood, etc.Clean, decent, comfortable beds,friendly service. For a family of four on a budget it worked out well.Added bonus of fridge and microwave in the room always a plus with a family.Neighborhood was a quiet business area. Front parking lot is small but extra parking in back.Had to ask for extra towels only 2 per room and the continental breakfast wasn't really very good. Don't count on it for anything substantial, good for coffee and a pastry, that's about it. The pool was nice, small, clean and well maintained.Would stay again for the price and location.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Well priced for the time of the year, (summer) great central location to a lot of different areas and things to do in LA. Close to Universal Studios, Griffith Observatory, Hollywood, etc.Clean, decent, comfortable beds,friendly service. For a family of four on a budget it worked out well.Added bonus of fridge and microwave in the room always a plus with a family.Neighborhood was a quiet business area. Front parking lot is small but extra parking in back.Had to ask for extra towels only 2 per room and the continental breakfast wasn't really very good. Don't count on it for anything substantial, good for coffee and a pastry, that's about it. The pool was nice, small, clean and well maintained.Would stay again for the price and location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r453314407-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>453314407</t>
+  </si>
+  <si>
+    <t>01/19/2017</t>
+  </si>
+  <si>
+    <t>Where to start</t>
+  </si>
+  <si>
+    <t>Well I'll keep it short n sweet. The owner is very nice but if you like transients, hookers, pimps, drug dealers, and cock roaches it's a great place to stay. Don't leave after about 5 in the afternoon otherwise chances are you won't find a parking spot.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2017</t>
+  </si>
+  <si>
+    <t>Well I'll keep it short n sweet. The owner is very nice but if you like transients, hookers, pimps, drug dealers, and cock roaches it's a great place to stay. Don't leave after about 5 in the afternoon otherwise chances are you won't find a parking spot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r345737128-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>345737128</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>Roach Motel</t>
+  </si>
+  <si>
+    <t>We had much higher expectations for a chain associated with Motel 6, but our "Non-Smoking" room is definitely not one (cigarette burns on the bed included with the smell), there are roaches everywhere, and the place is just generally filthy &amp; gross. The manager is a jerk, and tried to throw my wife out with all our stuff while I was at work, because he claimed we hadn't paid him yet. Since he was never in his office, I had done it through the Motel 6 phone reservations, but couldn't confirm it with him (no posted office hours, no one answering the phone). We will never come back to this place, and don't think anyone else should either.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>We had much higher expectations for a chain associated with Motel 6, but our "Non-Smoking" room is definitely not one (cigarette burns on the bed included with the smell), there are roaches everywhere, and the place is just generally filthy &amp; gross. The manager is a jerk, and tried to throw my wife out with all our stuff while I was at work, because he claimed we hadn't paid him yet. Since he was never in his office, I had done it through the Motel 6 phone reservations, but couldn't confirm it with him (no posted office hours, no one answering the phone). We will never come back to this place, and don't think anyone else should either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r299623936-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>299623936</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Potential identity theft</t>
+  </si>
+  <si>
+    <t>At check-inmy drivers license, credit card and military ID were were photo copied. When questioned why, I was told  it was required policy. I told Robin it was illegal  to copy military ID. Robin cut off the military ID from the page of ID copies and returned it.  But would not return  the other items copied. 2 days later when the manager returned I told him of my concerns regarding all my personal info and full credit card being copied and my concerns about identity theft with the copied information. The manager cut off and returned the copy of the credit card and said it was a mistake to copy it. He said he would check about the drivers license copy.  At check out he returned the copy of my drivers license. My full and complete information has been compromised by coping my information. For 4 days it was out of my control who had access to copy the copies/information. I have notified my credit company and now need to change  my drivers license. I will post online publicly regarding this incident.  A stay at your hotel should not require potential identity theft. As a side note I was also charged a fee of $10.00 for each night for my pet.  I had originally chosen Motel6 / Studio6 because of the pet policy..  There were issues with the room  which I have taken photos. But those are a minor annoyance...At check-inmy drivers license, credit card and military ID were were photo copied. When questioned why, I was told  it was required policy. I told Robin it was illegal  to copy military ID. Robin cut off the military ID from the page of ID copies and returned it.  But would not return  the other items copied. 2 days later when the manager returned I told him of my concerns regarding all my personal info and full credit card being copied and my concerns about identity theft with the copied information. The manager cut off and returned the copy of the credit card and said it was a mistake to copy it. He said he would check about the drivers license copy.  At check out he returned the copy of my drivers license. My full and complete information has been compromised by coping my information. For 4 days it was out of my control who had access to copy the copies/information. I have notified my credit company and now need to change  my drivers license. I will post online publicly regarding this incident.  A stay at your hotel should not require potential identity theft. As a side note I was also charged a fee of $10.00 for each night for my pet.  I had originally chosen Motel6 / Studio6 because of the pet policy..  There were issues with the room  which I have taken photos. But those are a minor annoyance compared to my concerns regarding the photo copies of my information.  Thank you for investigating this matter.           Above is the letter sent to Studio6 Corporate. We are awaiting a response.  Issues with the room are as follows:  VERY strong smell of cigarettes in our no smoking room. Laminate flooring peeling up. Cigarette burns in bedding and on bathroom door. A/C unit VERY loud and did not function very well. We had to slide a chair over to the unit and climb on the seat of the chair to turn on or adjust the A/C unit. We were there during a heat advisory time. The refridge was at the highest setting but barely cooled the food we stored. The floor cleaning leaves much to be desired. Our feet turned black when we walked barefoot and the dust along the baseboards was thick. Cleaning here appears to be "a once over will do".Our room was at the back away from the noisy street, but it was directly over the parking lot with parking directly under our room, very noisy all night with cars coming and going.  The street directly behind the parking was very sketchy. We saw police there every day of our stay. We are used to Motel6 being a no frills so we brought our own sheets and towels.  The bed was hard and had definitely passed its prime. Would we stay again? No!       The good?  There is a NORMS restaurant across the street. Good food at Great prices. Ralph's market and Rite Aide are just up the block. The motel is centrally located and has easy access to the 170 freeway and just a short drive to the 405. The maid service was accommodating when we requested a service.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Studio 6 Van Nuys, responded to this reviewResponded August 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2015</t>
+  </si>
+  <si>
+    <t>At check-inmy drivers license, credit card and military ID were were photo copied. When questioned why, I was told  it was required policy. I told Robin it was illegal  to copy military ID. Robin cut off the military ID from the page of ID copies and returned it.  But would not return  the other items copied. 2 days later when the manager returned I told him of my concerns regarding all my personal info and full credit card being copied and my concerns about identity theft with the copied information. The manager cut off and returned the copy of the credit card and said it was a mistake to copy it. He said he would check about the drivers license copy.  At check out he returned the copy of my drivers license. My full and complete information has been compromised by coping my information. For 4 days it was out of my control who had access to copy the copies/information. I have notified my credit company and now need to change  my drivers license. I will post online publicly regarding this incident.  A stay at your hotel should not require potential identity theft. As a side note I was also charged a fee of $10.00 for each night for my pet.  I had originally chosen Motel6 / Studio6 because of the pet policy..  There were issues with the room  which I have taken photos. But those are a minor annoyance...At check-inmy drivers license, credit card and military ID were were photo copied. When questioned why, I was told  it was required policy. I told Robin it was illegal  to copy military ID. Robin cut off the military ID from the page of ID copies and returned it.  But would not return  the other items copied. 2 days later when the manager returned I told him of my concerns regarding all my personal info and full credit card being copied and my concerns about identity theft with the copied information. The manager cut off and returned the copy of the credit card and said it was a mistake to copy it. He said he would check about the drivers license copy.  At check out he returned the copy of my drivers license. My full and complete information has been compromised by coping my information. For 4 days it was out of my control who had access to copy the copies/information. I have notified my credit company and now need to change  my drivers license. I will post online publicly regarding this incident.  A stay at your hotel should not require potential identity theft. As a side note I was also charged a fee of $10.00 for each night for my pet.  I had originally chosen Motel6 / Studio6 because of the pet policy..  There were issues with the room  which I have taken photos. But those are a minor annoyance compared to my concerns regarding the photo copies of my information.  Thank you for investigating this matter.           Above is the letter sent to Studio6 Corporate. We are awaiting a response.  Issues with the room are as follows:  VERY strong smell of cigarettes in our no smoking room. Laminate flooring peeling up. Cigarette burns in bedding and on bathroom door. A/C unit VERY loud and did not function very well. We had to slide a chair over to the unit and climb on the seat of the chair to turn on or adjust the A/C unit. We were there during a heat advisory time. The refridge was at the highest setting but barely cooled the food we stored. The floor cleaning leaves much to be desired. Our feet turned black when we walked barefoot and the dust along the baseboards was thick. Cleaning here appears to be "a once over will do".Our room was at the back away from the noisy street, but it was directly over the parking lot with parking directly under our room, very noisy all night with cars coming and going.  The street directly behind the parking was very sketchy. We saw police there every day of our stay. We are used to Motel6 being a no frills so we brought our own sheets and towels.  The bed was hard and had definitely passed its prime. Would we stay again? No!       The good?  There is a NORMS restaurant across the street. Good food at Great prices. Ralph's market and Rite Aide are just up the block. The motel is centrally located and has easy access to the 170 freeway and just a short drive to the 405. The maid service was accommodating when we requested a service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r254600424-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>254600424</t>
+  </si>
+  <si>
+    <t>02/16/2015</t>
+  </si>
+  <si>
+    <t>Eh.  I didn't get mugged.  My car didn't get scratched.</t>
+  </si>
+  <si>
+    <t>I stayed for 2 nights, so I could explore the (San Fernando) Valley.  Motel 6/Studio 6 is pet friendly, which was the primary reason I picked to stay with them. The hotel's location and clientele were the worst part of my experience.  The parking lot is also tight and unfortunately ripe with running into not-so-savory people and situations.  Once in the room, it was clean, the bed was comfy, and had a nice, clean kitchen, and I appreciated the air conditioning.  The walls are thin, so the noisy unit helped to drown out the noise from the other guests.  (I like noisy air conditioners!)  The hot water took about 3 minutes for a warm shower, but once it got going, it was nice enough. I know for next time, I will gladly pay more to stay somewhere more pleasant, but I don't blame the management.  That part of Van Nuys / North Hollywood is pretty rough!  However, I paid less than $90/night on a holiday weekend, with my dog, and I this room  had a kitchen!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed for 2 nights, so I could explore the (San Fernando) Valley.  Motel 6/Studio 6 is pet friendly, which was the primary reason I picked to stay with them. The hotel's location and clientele were the worst part of my experience.  The parking lot is also tight and unfortunately ripe with running into not-so-savory people and situations.  Once in the room, it was clean, the bed was comfy, and had a nice, clean kitchen, and I appreciated the air conditioning.  The walls are thin, so the noisy unit helped to drown out the noise from the other guests.  (I like noisy air conditioners!)  The hot water took about 3 minutes for a warm shower, but once it got going, it was nice enough. I know for next time, I will gladly pay more to stay somewhere more pleasant, but I don't blame the management.  That part of Van Nuys / North Hollywood is pretty rough!  However, I paid less than $90/night on a holiday weekend, with my dog, and I this room  had a kitchen!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r232880414-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>232880414</t>
+  </si>
+  <si>
+    <t>10/06/2014</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We were travelling across California and wanted to stay in LA for a week,We went with this motel due to staying in many studio 6's/motels 6's before,This one was great, a big couple of rooms, big TV, nice kitchenette  Everything that we neededThe only down fall is the parking, not much space</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r231728968-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>231728968</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>Bring Quarters and Bug Spray</t>
+  </si>
+  <si>
+    <t>I opted to stay at this property because they allow dogs and there were some average and good reviews online, and anything else within a reasonable driving distance of quality accommodations is too pricey for my wallet.  Staff is friendly and helpful especially housekeeping.  The front-desk guy gave me options for rooms which was very nice.  Room was as expected for a 1-star motel.  There was a kitchenette with an apartment-sized refrigerator which was perfect for my frozen dog food.  I did not feel uncomfortable in the hood like others mentioned in their reviews.  Ralphs was down the block as well as a NORM's diner.  Parking is tight as I read but even my full-sized pickup parked with no dents or scrapes to mine or other vehicles.  I would have rated this place average but I reported the ice machine broken and I was told guests have to pay for ice. After I laughed hysterically, the clerk gave me a quarter, but then really, it was broken. It made some noise and dispensed nothing.  When I was leaving, I picked up my dog's piddle pads, and there were cockroaches hiding beneath it.  Just two.  Probably because of the latter I would opt not to stay here again.  Bed was very comfortable, and I slept well, except for someone pounding and screaming at another guest room door late night.  I was sort of expecting something like that to happen, and thank...I opted to stay at this property because they allow dogs and there were some average and good reviews online, and anything else within a reasonable driving distance of quality accommodations is too pricey for my wallet.  Staff is friendly and helpful especially housekeeping.  The front-desk guy gave me options for rooms which was very nice.  Room was as expected for a 1-star motel.  There was a kitchenette with an apartment-sized refrigerator which was perfect for my frozen dog food.  I did not feel uncomfortable in the hood like others mentioned in their reviews.  Ralphs was down the block as well as a NORM's diner.  Parking is tight as I read but even my full-sized pickup parked with no dents or scrapes to mine or other vehicles.  I would have rated this place average but I reported the ice machine broken and I was told guests have to pay for ice. After I laughed hysterically, the clerk gave me a quarter, but then really, it was broken. It made some noise and dispensed nothing.  When I was leaving, I picked up my dog's piddle pads, and there were cockroaches hiding beneath it.  Just two.  Probably because of the latter I would opt not to stay here again.  Bed was very comfortable, and I slept well, except for someone pounding and screaming at another guest room door late night.  I was sort of expecting something like that to happen, and thank goodness nothing worse.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>I opted to stay at this property because they allow dogs and there were some average and good reviews online, and anything else within a reasonable driving distance of quality accommodations is too pricey for my wallet.  Staff is friendly and helpful especially housekeeping.  The front-desk guy gave me options for rooms which was very nice.  Room was as expected for a 1-star motel.  There was a kitchenette with an apartment-sized refrigerator which was perfect for my frozen dog food.  I did not feel uncomfortable in the hood like others mentioned in their reviews.  Ralphs was down the block as well as a NORM's diner.  Parking is tight as I read but even my full-sized pickup parked with no dents or scrapes to mine or other vehicles.  I would have rated this place average but I reported the ice machine broken and I was told guests have to pay for ice. After I laughed hysterically, the clerk gave me a quarter, but then really, it was broken. It made some noise and dispensed nothing.  When I was leaving, I picked up my dog's piddle pads, and there were cockroaches hiding beneath it.  Just two.  Probably because of the latter I would opt not to stay here again.  Bed was very comfortable, and I slept well, except for someone pounding and screaming at another guest room door late night.  I was sort of expecting something like that to happen, and thank...I opted to stay at this property because they allow dogs and there were some average and good reviews online, and anything else within a reasonable driving distance of quality accommodations is too pricey for my wallet.  Staff is friendly and helpful especially housekeeping.  The front-desk guy gave me options for rooms which was very nice.  Room was as expected for a 1-star motel.  There was a kitchenette with an apartment-sized refrigerator which was perfect for my frozen dog food.  I did not feel uncomfortable in the hood like others mentioned in their reviews.  Ralphs was down the block as well as a NORM's diner.  Parking is tight as I read but even my full-sized pickup parked with no dents or scrapes to mine or other vehicles.  I would have rated this place average but I reported the ice machine broken and I was told guests have to pay for ice. After I laughed hysterically, the clerk gave me a quarter, but then really, it was broken. It made some noise and dispensed nothing.  When I was leaving, I picked up my dog's piddle pads, and there were cockroaches hiding beneath it.  Just two.  Probably because of the latter I would opt not to stay here again.  Bed was very comfortable, and I slept well, except for someone pounding and screaming at another guest room door late night.  I was sort of expecting something like that to happen, and thank goodness nothing worse.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r223459497-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>223459497</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Looks are deceiving</t>
+  </si>
+  <si>
+    <t>From the street, yes, it looks unpleasant but once you find the way in- through the east side of the property, it still looks a bit dodgey in the small back parking area, however entering into the courtyard which is just a nice clean looking pool you should change your mind.I wished I stayed here longer as the pool is really steps from your door and the street noise is masked. The rooms very clean, staff very nice. My son and I felt safe.But the best part? is eating across the street at Norms! Recommended by the front desk guy this place was great, biggest servings and tasty. We ate there 3 or 4 times. It has that old 1960s charm that has not changed over time.If your nearby I recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>From the street, yes, it looks unpleasant but once you find the way in- through the east side of the property, it still looks a bit dodgey in the small back parking area, however entering into the courtyard which is just a nice clean looking pool you should change your mind.I wished I stayed here longer as the pool is really steps from your door and the street noise is masked. The rooms very clean, staff very nice. My son and I felt safe.But the best part? is eating across the street at Norms! Recommended by the front desk guy this place was great, biggest servings and tasty. We ate there 3 or 4 times. It has that old 1960s charm that has not changed over time.If your nearby I recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r203022364-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>203022364</t>
+  </si>
+  <si>
+    <t>04/27/2014</t>
+  </si>
+  <si>
+    <t>Worth the Trip</t>
+  </si>
+  <si>
+    <t>Our stay here was pleasant! Decor is nice, bed comfortable. Location was great for our visit to Universal Studios.  Positives: Decor, Comfort, Friendly Staff, Clean Negatives: Toilet Seat not secure, Toilet was refilling through-out the night; needs to be adjusted. $15 to Park; not mentioned during reservations.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r193100440-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>193100440</t>
+  </si>
+  <si>
+    <t>02/04/2014</t>
+  </si>
+  <si>
+    <t>Company put me up here...who did I choose to work for?  LOL.</t>
+  </si>
+  <si>
+    <t>This was another hotel that my company put me up in and purchased through Hotels.com  My opinion of this booking site is that it is a rip-off.  Book directly with the hotel and look for discounts like AAA, etc.This hotel was relatively close to my place of work, so that was about all I enjoyed about it.PROS:Proximity to work.My room was upstairs and located near the pool.There are a lot of restaurants that are close. CONS:Crack in door so thick you could see through it.Parking is in an alley behind the hotel and is kind of tight.  The neighborhood is questionable, but remember, you are in LA.The hotel seemed to have way more week to week people down on their luck than travelers.  Lots of smokers.When I saw the rate on this 'hotel' that my boss paid - it reminded me of how everything in LA and Cali is over-priced.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>This was another hotel that my company put me up in and purchased through Hotels.com  My opinion of this booking site is that it is a rip-off.  Book directly with the hotel and look for discounts like AAA, etc.This hotel was relatively close to my place of work, so that was about all I enjoyed about it.PROS:Proximity to work.My room was upstairs and located near the pool.There are a lot of restaurants that are close. CONS:Crack in door so thick you could see through it.Parking is in an alley behind the hotel and is kind of tight.  The neighborhood is questionable, but remember, you are in LA.The hotel seemed to have way more week to week people down on their luck than travelers.  Lots of smokers.When I saw the rate on this 'hotel' that my boss paid - it reminded me of how everything in LA and Cali is over-priced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r192723400-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>192723400</t>
+  </si>
+  <si>
+    <t>01/31/2014</t>
+  </si>
+  <si>
+    <t>Not a bad place</t>
+  </si>
+  <si>
+    <t>If I had read only the reviews on google, I would not have stayed here. But it seemed like a different hotel. It was clean, there was nice hardwood flooring in my room. The guy at checkin was very friendly and, although it was close to midnight, not behind bullet proof glass. Not the quietest place, on a major street, and a gritty part of town. But close to a couple of decent restaurants and I felt fine walking around. I didn't expect 5 stars for the price I paid.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r155648747-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>155648747</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>good hotel, but some problems</t>
+  </si>
+  <si>
+    <t>This hotel has very good accommodation but the problem is that windows mostly facing the stairs or inside small yard and at night when people talk, or smoke in the yard it all go to the room and prevent good night sleep. Also they charge dog's fee which other Motel 6 do not do. We were there Jan 2012 but there is no such options in the menu, so I posted as Apr 2012.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r133768831-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>133768831</t>
+  </si>
+  <si>
+    <t>07/08/2012</t>
+  </si>
+  <si>
+    <t>DON'T DON'T STAY HERE IF U HAVE DOGS!</t>
+  </si>
+  <si>
+    <t>Though they tell u they are "Dog friendly" once ur dog barks they are ready to kick you out.  Everyone knows Dogs Bark (Just like humans talk) why run a hotel that is "Dog Friendly" but NO BARKS?! that's just foolish! Front desk is rude he said his name is "Johnny' he denied me his Managers Name and Number... What are you scared of?  If your going by "Policy" it shouldn't be a problem to give me her info! Just a heads up oh annnnnnd there is nowhere for ur pups to use the restroom there is dog urine and poop everywhere, smells like urine  when walking to your car.  Lets not forget one of the workers Bought drugs ON the premises while clocked in... Just a little insight on What you are getting yourself into when staying in this place! MoreShow less</t>
+  </si>
+  <si>
+    <t>Though they tell u they are "Dog friendly" once ur dog barks they are ready to kick you out.  Everyone knows Dogs Bark (Just like humans talk) why run a hotel that is "Dog Friendly" but NO BARKS?! that's just foolish! Front desk is rude he said his name is "Johnny' he denied me his Managers Name and Number... What are you scared of?  If your going by "Policy" it shouldn't be a problem to give me her info! Just a heads up oh annnnnnd there is nowhere for ur pups to use the restroom there is dog urine and poop everywhere, smells like urine  when walking to your car.  Lets not forget one of the workers Bought drugs ON the premises while clocked in... Just a little insight on What you are getting yourself into when staying in this place! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r132410440-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>132410440</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>Pleasant surprised</t>
+  </si>
+  <si>
+    <t>Our first experience with one of the Hotel 6/Studio 6 chain.  We had our doubts, which were exacerbated when the non-smoking room we were initially given had the obvious smell of past smoke.  There was no arguement however, and we were given another room with upgraded features.  The building was well kept.  The maintenance person came right up when I mentioned at the front desk that a light wasn't working.  Housekeeping was great.  The courtyards are well kept with flowers and nice lighting.  Room was clean and good size.  Not much to look at from the street.  The area is pretty blue collar, but there are restaurants within walking distance and supermarket at the corner. The only complaint we would have are the goofy little thin pillows.  Otherwise, it was one of the best motels we'd been at in more than two weeks of travelling.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Our first experience with one of the Hotel 6/Studio 6 chain.  We had our doubts, which were exacerbated when the non-smoking room we were initially given had the obvious smell of past smoke.  There was no arguement however, and we were given another room with upgraded features.  The building was well kept.  The maintenance person came right up when I mentioned at the front desk that a light wasn't working.  Housekeeping was great.  The courtyards are well kept with flowers and nice lighting.  Room was clean and good size.  Not much to look at from the street.  The area is pretty blue collar, but there are restaurants within walking distance and supermarket at the corner. The only complaint we would have are the goofy little thin pillows.  Otherwise, it was one of the best motels we'd been at in more than two weeks of travelling.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r116322046-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>116322046</t>
+  </si>
+  <si>
+    <t>08/05/2011</t>
+  </si>
+  <si>
+    <t>Decent but the staff is incredibly rude and no customer service</t>
+  </si>
+  <si>
+    <t>You can get a much nicer extended stay room for $55 to $60 a night in a much nicer area. This place is great if you need to be in Van Nuys area, and the rooms are spacious and fairly clean, but it's a very bad area outside the hotel, definitely not a female or family friendly area. If they dropped the price just a little and hired some friendly people, I would stay here or even recommend to someon else.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r111461934-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>111461934</t>
+  </si>
+  <si>
+    <t>06/04/2011</t>
+  </si>
+  <si>
+    <t>Surprisingly nice hotel. worth staying.</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Looks kind of dumpy from the street, but once you get inside you are pleasantly surprised. Large clean rooms and nice pool. Really solid hotel. I’ve come to realize that most of the people writing on here are mainly just moaning and groaning because they expect perfection out of a discount room. Was the bed the most comfortable I have ever slept in? No. Was there an occasional loud child in the hallways? Yes. If you are looking for the most amazing room you have ever seen, go spend 300 dollars at the Hilton. IF you are looking for a nice, clean room and being able to spend your hard earned money on fun experiences, rather than somewhere you are just going to be sleeping, then stay here. You won’t regret it.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>Investorshm, Guest Relations Manager at Studio 6 Van Nuys, responded to this reviewResponded July 11, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2011</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Looks kind of dumpy from the street, but once you get inside you are pleasantly surprised. Large clean rooms and nice pool. Really solid hotel. I’ve come to realize that most of the people writing on here are mainly just moaning and groaning because they expect perfection out of a discount room. Was the bed the most comfortable I have ever slept in? No. Was there an occasional loud child in the hallways? Yes. If you are looking for the most amazing room you have ever seen, go spend 300 dollars at the Hilton. IF you are looking for a nice, clean room and being able to spend your hard earned money on fun experiences, rather than somewhere you are just going to be sleeping, then stay here. You won’t regret it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r108964960-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>108964960</t>
+  </si>
+  <si>
+    <t>05/19/2011</t>
+  </si>
+  <si>
+    <t>DO NOT STAY!!!</t>
+  </si>
+  <si>
+    <t>Do not stay here! Staff was rude and behind bullet proof glass. Terrible neighborhood, room was located facing Sherman way. Hookers live there along with others, this is more of a dirty apartment complex than a hotel! The pictures on the website was not the same hotel, they lied. Dirty rooms, the amenities listed on the website were not what the hotel had. Horrible experience and would NEVER again stay or recommend to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Do not stay here! Staff was rude and behind bullet proof glass. Terrible neighborhood, room was located facing Sherman way. Hookers live there along with others, this is more of a dirty apartment complex than a hotel! The pictures on the website was not the same hotel, they lied. Dirty rooms, the amenities listed on the website were not what the hotel had. Horrible experience and would NEVER again stay or recommend to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r63666440-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>63666440</t>
+  </si>
+  <si>
+    <t>05/09/2010</t>
+  </si>
+  <si>
+    <t>Not a comfortable neighborhood; inside of courtyard much better.</t>
+  </si>
+  <si>
+    <t>We skimped to save a few dollars when we went to LA. The neighborhood around the hotel is not good. We got out of the car and saw this guy watching us from the balcony of an apartment next door to this property. That was a little creepy. Once you get inside the courtyard of the hotel, it looks nice enough. We slept OK and didn't notice any bugs. It seemed fairly clean. I wouldn't stay there again just because I didn't feel completely comfortable and would rather pay a little more to stay somewhere better.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>Investorshm, IHM Property Reporter at Studio 6 Van Nuys, responded to this reviewResponded May 23, 2010</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2010</t>
+  </si>
+  <si>
+    <t>We skimped to save a few dollars when we went to LA. The neighborhood around the hotel is not good. We got out of the car and saw this guy watching us from the balcony of an apartment next door to this property. That was a little creepy. Once you get inside the courtyard of the hotel, it looks nice enough. We slept OK and didn't notice any bugs. It seemed fairly clean. I wouldn't stay there again just because I didn't feel completely comfortable and would rather pay a little more to stay somewhere better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r35784813-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>35784813</t>
+  </si>
+  <si>
+    <t>07/25/2009</t>
+  </si>
+  <si>
+    <t>ok for 1 night and it has kitchen</t>
+  </si>
+  <si>
+    <t>if u r staying for 1 night, this place is acceptable. the bathroom has been remodeled which is a good thing. room is spacious and it has an equipped kitchen for making meals. we used coupon and paid about $60. good value for this place but the neighbourhod and area is not fantastic.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r15734156-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>15734156</t>
+  </si>
+  <si>
+    <t>05/06/2008</t>
+  </si>
+  <si>
+    <t>extended stay, stay extended stay america</t>
+  </si>
+  <si>
+    <t>mattress is very nice compaired to extended stay america. somethings very clean and new others dirty and old. the room did not have a fully equipped kiction, and we brought a lot of food to find a fridge and a microwave no dishes/ sink /stove and a VERY old scary microwave. also the TV did not work right the, the internet (im on now) was givin wrong codes first (just annoying) and the room smells like gas, i cant figure out where from but certain spots smell of it worse than others. the front dest will not switch me rooms i have a very bad head ache now. im waiting for my boyfriend to come back. my advice was leave the door open..... but its not in a great area (central for where we need to be but bad area) im alone and 8 1/2 months pregnant. not great customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>mattress is very nice compaired to extended stay america. somethings very clean and new others dirty and old. the room did not have a fully equipped kiction, and we brought a lot of food to find a fridge and a microwave no dishes/ sink /stove and a VERY old scary microwave. also the TV did not work right the, the internet (im on now) was givin wrong codes first (just annoying) and the room smells like gas, i cant figure out where from but certain spots smell of it worse than others. the front dest will not switch me rooms i have a very bad head ache now. im waiting for my boyfriend to come back. my advice was leave the door open..... but its not in a great area (central for where we need to be but bad area) im alone and 8 1/2 months pregnant. not great customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r3814988-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>3814988</t>
+  </si>
+  <si>
+    <t>08/28/2005</t>
+  </si>
+  <si>
+    <t>worst place I ever stayed---stay away</t>
+  </si>
+  <si>
+    <t>This is the worst place I ever stayed. Unfortunatly I made the reservation over the phone the night before so I was told I wouldn't get a refund if I cancelled. I didn't worry about that since I had stayed at a Best Value Inn in Williams, Az and it was great. When we got there we had to go down a dark alley to get to the office. There were people laying down in the parking area. We would have left except we had already paid. The hallways smelled like urine. The front desk person was eyeballing and trying to flirt with my daughter. The room was awful. The bathroom was dirty. We had to clean the toilet ourselves before we could use it. Neither one of use was brave enough to step foot in the shower. We wore our shoes in the room and wore our clothes to bed as we were afraid of what might have been in it. There were signs all over the place warning about illegal drug use and prostitues as well as a sign saying you had to pay for the whole night and not just an hour. You had to put a $10 deposit to use the phone and they deducted 52 cents a minute from it for local calls. We left there as quick as we could in the morning. I have stayed in a lot of motels as I like...This is the worst place I ever stayed. Unfortunatly I made the reservation over the phone the night before so I was told I wouldn't get a refund if I cancelled. I didn't worry about that since I had stayed at a Best Value Inn in Williams, Az and it was great. When we got there we had to go down a dark alley to get to the office. There were people laying down in the parking area. We would have left except we had already paid. The hallways smelled like urine. The front desk person was eyeballing and trying to flirt with my daughter. The room was awful. The bathroom was dirty. We had to clean the toilet ourselves before we could use it. Neither one of use was brave enough to step foot in the shower. We wore our shoes in the room and wore our clothes to bed as we were afraid of what might have been in it. There were signs all over the place warning about illegal drug use and prostitues as well as a sign saying you had to pay for the whole night and not just an hour. You had to put a $10 deposit to use the phone and they deducted 52 cents a minute from it for local calls. We left there as quick as we could in the morning. I have stayed in a lot of motels as I like to travel but none of them ever made me feel like I needed a shower after leaving them. After staying here I have started to read reviews before staying anywhere. I am happy to report the best value inn no longer has them listed as one of their motels.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the worst place I ever stayed. Unfortunatly I made the reservation over the phone the night before so I was told I wouldn't get a refund if I cancelled. I didn't worry about that since I had stayed at a Best Value Inn in Williams, Az and it was great. When we got there we had to go down a dark alley to get to the office. There were people laying down in the parking area. We would have left except we had already paid. The hallways smelled like urine. The front desk person was eyeballing and trying to flirt with my daughter. The room was awful. The bathroom was dirty. We had to clean the toilet ourselves before we could use it. Neither one of use was brave enough to step foot in the shower. We wore our shoes in the room and wore our clothes to bed as we were afraid of what might have been in it. There were signs all over the place warning about illegal drug use and prostitues as well as a sign saying you had to pay for the whole night and not just an hour. You had to put a $10 deposit to use the phone and they deducted 52 cents a minute from it for local calls. We left there as quick as we could in the morning. I have stayed in a lot of motels as I like...This is the worst place I ever stayed. Unfortunatly I made the reservation over the phone the night before so I was told I wouldn't get a refund if I cancelled. I didn't worry about that since I had stayed at a Best Value Inn in Williams, Az and it was great. When we got there we had to go down a dark alley to get to the office. There were people laying down in the parking area. We would have left except we had already paid. The hallways smelled like urine. The front desk person was eyeballing and trying to flirt with my daughter. The room was awful. The bathroom was dirty. We had to clean the toilet ourselves before we could use it. Neither one of use was brave enough to step foot in the shower. We wore our shoes in the room and wore our clothes to bed as we were afraid of what might have been in it. There were signs all over the place warning about illegal drug use and prostitues as well as a sign saying you had to pay for the whole night and not just an hour. You had to put a $10 deposit to use the phone and they deducted 52 cents a minute from it for local calls. We left there as quick as we could in the morning. I have stayed in a lot of motels as I like to travel but none of them ever made me feel like I needed a shower after leaving them. After staying here I have started to read reviews before staying anywhere. I am happy to report the best value inn no longer has them listed as one of their motels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r3547734-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>3547734</t>
+  </si>
+  <si>
+    <t>06/12/2005</t>
+  </si>
+  <si>
+    <t>left to be desired</t>
+  </si>
+  <si>
+    <t>Oh, where to begin! This is not the absolute worst place to stay but it does have its issues. This is on busy Sherwin Way. Was desperate to find something cheap as I was staying only one day in LA. Parking is in the rear but no sign directs you to where exactly you turn into the parking lot. I felt we were being watched by the neighboring apartment complexes. Area seemed quite dodgy. Got key and entered room where there was faint smoking scent. No surprise to see hole in comforter with cigarette burns. This "suite" felt like an old converted apartment building. Tiny 2 floor building with a tiny swimming pool. For some reason just the small pool in the courtyard was the only thing I liked of the whole place even though I didn't swim. The floor of the room felt gummy and was afraid to walk on it. Bathroom was OK. No wash cloths. Shower went from hot to cold depending on who else was using it at the same time as you. There was a kitchenette but I decided to leave this room with none of my presence. The only other little qualm was on the TV. Although I don't mind viewing adult entertainment myself, there seemed to be free access to a porn channel. My only thoughts were to the poor unsuspecting family with children who may be in for a big shock and...Oh, where to begin! This is not the absolute worst place to stay but it does have its issues. This is on busy Sherwin Way. Was desperate to find something cheap as I was staying only one day in LA. Parking is in the rear but no sign directs you to where exactly you turn into the parking lot. I felt we were being watched by the neighboring apartment complexes. Area seemed quite dodgy. Got key and entered room where there was faint smoking scent. No surprise to see hole in comforter with cigarette burns. This "suite" felt like an old converted apartment building. Tiny 2 floor building with a tiny swimming pool. For some reason just the small pool in the courtyard was the only thing I liked of the whole place even though I didn't swim. The floor of the room felt gummy and was afraid to walk on it. Bathroom was OK. No wash cloths. Shower went from hot to cold depending on who else was using it at the same time as you. There was a kitchenette but I decided to leave this room with none of my presence. The only other little qualm was on the TV. Although I don't mind viewing adult entertainment myself, there seemed to be free access to a porn channel. My only thoughts were to the poor unsuspecting family with children who may be in for a big shock and telling their children about the birds and the bees earlier than they would want! Would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Oh, where to begin! This is not the absolute worst place to stay but it does have its issues. This is on busy Sherwin Way. Was desperate to find something cheap as I was staying only one day in LA. Parking is in the rear but no sign directs you to where exactly you turn into the parking lot. I felt we were being watched by the neighboring apartment complexes. Area seemed quite dodgy. Got key and entered room where there was faint smoking scent. No surprise to see hole in comforter with cigarette burns. This "suite" felt like an old converted apartment building. Tiny 2 floor building with a tiny swimming pool. For some reason just the small pool in the courtyard was the only thing I liked of the whole place even though I didn't swim. The floor of the room felt gummy and was afraid to walk on it. Bathroom was OK. No wash cloths. Shower went from hot to cold depending on who else was using it at the same time as you. There was a kitchenette but I decided to leave this room with none of my presence. The only other little qualm was on the TV. Although I don't mind viewing adult entertainment myself, there seemed to be free access to a porn channel. My only thoughts were to the poor unsuspecting family with children who may be in for a big shock and...Oh, where to begin! This is not the absolute worst place to stay but it does have its issues. This is on busy Sherwin Way. Was desperate to find something cheap as I was staying only one day in LA. Parking is in the rear but no sign directs you to where exactly you turn into the parking lot. I felt we were being watched by the neighboring apartment complexes. Area seemed quite dodgy. Got key and entered room where there was faint smoking scent. No surprise to see hole in comforter with cigarette burns. This "suite" felt like an old converted apartment building. Tiny 2 floor building with a tiny swimming pool. For some reason just the small pool in the courtyard was the only thing I liked of the whole place even though I didn't swim. The floor of the room felt gummy and was afraid to walk on it. Bathroom was OK. No wash cloths. Shower went from hot to cold depending on who else was using it at the same time as you. There was a kitchenette but I decided to leave this room with none of my presence. The only other little qualm was on the TV. Although I don't mind viewing adult entertainment myself, there seemed to be free access to a porn channel. My only thoughts were to the poor unsuspecting family with children who may be in for a big shock and telling their children about the birds and the bees earlier than they would want! Would not stay here again.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1155,1497 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>169</v>
+      </c>
+      <c r="O18" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>170</v>
+      </c>
+      <c r="X18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>170</v>
+      </c>
+      <c r="X19" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>185</v>
+      </c>
+      <c r="X20" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>193</v>
+      </c>
+      <c r="O21" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>199</v>
+      </c>
+      <c r="O22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s">
+        <v>211</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_726.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_726.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I booked a 2 night stay at your Studio 6 Van Nuys location. We checked in &amp; pretty much dropped off our luggage &amp; went sight-seeing all day. I noticed the comforters were stained, had cigarette burn holes, even though it was supposed to be a non-smoking room. The room smelled really bad as well. I turned the comforters over to make sure the sheets were clean &amp; they were, as that was my main concern. We arrived back to the room at about 11pm. There were drugged up people hanging out around the rooms so we quickly went into the room. As we turn on the lights in the room, cockroaches ran in every direction, specially in the kitchen area. I immediately began taking pictures &amp; a video as proof. We were so disgusted that we couldn't even eat the late dinner we had brought back to the hotel. We had to throw everything out. I opened the refrigerator door to grab a water bottle I had stored before leaving &amp; the roaches were INSIDE the refrigerator as well!! Immediately I call the front desk &amp; the man that answered was completely rude &amp; unprofessional. He blamed me for not checking the room when we checked in! My response was "Were the cockroaches supposed to greet me when I first walked in? Do they introduce themselves??" I told him I wanted a refund &amp; he told me there was...I booked a 2 night stay at your Studio 6 Van Nuys location. We checked in &amp; pretty much dropped off our luggage &amp; went sight-seeing all day. I noticed the comforters were stained, had cigarette burn holes, even though it was supposed to be a non-smoking room. The room smelled really bad as well. I turned the comforters over to make sure the sheets were clean &amp; they were, as that was my main concern. We arrived back to the room at about 11pm. There were drugged up people hanging out around the rooms so we quickly went into the room. As we turn on the lights in the room, cockroaches ran in every direction, specially in the kitchen area. I immediately began taking pictures &amp; a video as proof. We were so disgusted that we couldn't even eat the late dinner we had brought back to the hotel. We had to throw everything out. I opened the refrigerator door to grab a water bottle I had stored before leaving &amp; the roaches were INSIDE the refrigerator as well!! Immediately I call the front desk &amp; the man that answered was completely rude &amp; unprofessional. He blamed me for not checking the room when we checked in! My response was "Were the cockroaches supposed to greet me when I first walked in? Do they introduce themselves??" I told him I wanted a refund &amp; he told me there was nothing he could do. That I needed to call in the morning &amp; he hung up. We had nowhere to go &amp; we had a small child with us. All of the nearby hotels were all booked. We had to sleep with one eye open. It was the worst night of our lives! The next morning, the more I looked around, the more I saw how this location should not even be in business. There were so many safety hazards &amp; lack of basic cleanliness. I took several pictures. We packed up our things &amp; I went to the front desk to explain to the  manager what was going on. He offered not one apology. The most decent thing he said was that he would give me a refund for both nights ONLY because the man I spoke to the night before should have told me to leave if I was unsatisfied! This place needs to be out of business!!!More</t>
   </si>
   <si>
+    <t>Kelley R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r494953667-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Well priced for the time of the year, (summer) great central location to a lot of different areas and things to do in LA. Close to Universal Studios, Griffith Observatory, Hollywood, etc.Clean, decent, comfortable beds,friendly service. For a family of four on a budget it worked out well.Added bonus of fridge and microwave in the room always a plus with a family.Neighborhood was a quiet business area. Front parking lot is small but extra parking in back.Had to ask for extra towels only 2 per room and the continental breakfast wasn't really very good. Don't count on it for anything substantial, good for coffee and a pastry, that's about it. The pool was nice, small, clean and well maintained.Would stay again for the price and location.More</t>
   </si>
   <si>
+    <t>hushpuppy81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r453314407-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>Well I'll keep it short n sweet. The owner is very nice but if you like transients, hookers, pimps, drug dealers, and cock roaches it's a great place to stay. Don't leave after about 5 in the afternoon otherwise chances are you won't find a parking spot.More</t>
   </si>
   <si>
+    <t>Joel G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r345737128-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>We had much higher expectations for a chain associated with Motel 6, but our "Non-Smoking" room is definitely not one (cigarette burns on the bed included with the smell), there are roaches everywhere, and the place is just generally filthy &amp; gross. The manager is a jerk, and tried to throw my wife out with all our stuff while I was at work, because he claimed we hadn't paid him yet. Since he was never in his office, I had done it through the Motel 6 phone reservations, but couldn't confirm it with him (no posted office hours, no one answering the phone). We will never come back to this place, and don't think anyone else should either.More</t>
   </si>
   <si>
+    <t>Pjjbro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r299623936-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>At check-inmy drivers license, credit card and military ID were were photo copied. When questioned why, I was told  it was required policy. I told Robin it was illegal  to copy military ID. Robin cut off the military ID from the page of ID copies and returned it.  But would not return  the other items copied. 2 days later when the manager returned I told him of my concerns regarding all my personal info and full credit card being copied and my concerns about identity theft with the copied information. The manager cut off and returned the copy of the credit card and said it was a mistake to copy it. He said he would check about the drivers license copy.  At check out he returned the copy of my drivers license. My full and complete information has been compromised by coping my information. For 4 days it was out of my control who had access to copy the copies/information. I have notified my credit company and now need to change  my drivers license. I will post online publicly regarding this incident.  A stay at your hotel should not require potential identity theft. As a side note I was also charged a fee of $10.00 for each night for my pet.  I had originally chosen Motel6 / Studio6 because of the pet policy..  There were issues with the room  which I have taken photos. But those are a minor annoyance...At check-inmy drivers license, credit card and military ID were were photo copied. When questioned why, I was told  it was required policy. I told Robin it was illegal  to copy military ID. Robin cut off the military ID from the page of ID copies and returned it.  But would not return  the other items copied. 2 days later when the manager returned I told him of my concerns regarding all my personal info and full credit card being copied and my concerns about identity theft with the copied information. The manager cut off and returned the copy of the credit card and said it was a mistake to copy it. He said he would check about the drivers license copy.  At check out he returned the copy of my drivers license. My full and complete information has been compromised by coping my information. For 4 days it was out of my control who had access to copy the copies/information. I have notified my credit company and now need to change  my drivers license. I will post online publicly regarding this incident.  A stay at your hotel should not require potential identity theft. As a side note I was also charged a fee of $10.00 for each night for my pet.  I had originally chosen Motel6 / Studio6 because of the pet policy..  There were issues with the room  which I have taken photos. But those are a minor annoyance compared to my concerns regarding the photo copies of my information.  Thank you for investigating this matter.           Above is the letter sent to Studio6 Corporate. We are awaiting a response.  Issues with the room are as follows:  VERY strong smell of cigarettes in our no smoking room. Laminate flooring peeling up. Cigarette burns in bedding and on bathroom door. A/C unit VERY loud and did not function very well. We had to slide a chair over to the unit and climb on the seat of the chair to turn on or adjust the A/C unit. We were there during a heat advisory time. The refridge was at the highest setting but barely cooled the food we stored. The floor cleaning leaves much to be desired. Our feet turned black when we walked barefoot and the dust along the baseboards was thick. Cleaning here appears to be "a once over will do".Our room was at the back away from the noisy street, but it was directly over the parking lot with parking directly under our room, very noisy all night with cars coming and going.  The street directly behind the parking was very sketchy. We saw police there every day of our stay. We are used to Motel6 being a no frills so we brought our own sheets and towels.  The bed was hard and had definitely passed its prime. Would we stay again? No!       The good?  There is a NORMS restaurant across the street. Good food at Great prices. Ralph's market and Rite Aide are just up the block. The motel is centrally located and has easy access to the 170 freeway and just a short drive to the 405. The maid service was accommodating when we requested a service.More</t>
   </si>
   <si>
+    <t>Helpful_Wil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r254600424-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -321,6 +339,9 @@
     <t>I stayed for 2 nights, so I could explore the (San Fernando) Valley.  Motel 6/Studio 6 is pet friendly, which was the primary reason I picked to stay with them. The hotel's location and clientele were the worst part of my experience.  The parking lot is also tight and unfortunately ripe with running into not-so-savory people and situations.  Once in the room, it was clean, the bed was comfy, and had a nice, clean kitchen, and I appreciated the air conditioning.  The walls are thin, so the noisy unit helped to drown out the noise from the other guests.  (I like noisy air conditioners!)  The hot water took about 3 minutes for a warm shower, but once it got going, it was nice enough. I know for next time, I will gladly pay more to stay somewhere more pleasant, but I don't blame the management.  That part of Van Nuys / North Hollywood is pretty rough!  However, I paid less than $90/night on a holiday weekend, with my dog, and I this room  had a kitchen!More</t>
   </si>
   <si>
+    <t>JamieDon18</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r232880414-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -339,6 +360,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Mark K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r231728968-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -360,6 +384,9 @@
     <t>I opted to stay at this property because they allow dogs and there were some average and good reviews online, and anything else within a reasonable driving distance of quality accommodations is too pricey for my wallet.  Staff is friendly and helpful especially housekeeping.  The front-desk guy gave me options for rooms which was very nice.  Room was as expected for a 1-star motel.  There was a kitchenette with an apartment-sized refrigerator which was perfect for my frozen dog food.  I did not feel uncomfortable in the hood like others mentioned in their reviews.  Ralphs was down the block as well as a NORM's diner.  Parking is tight as I read but even my full-sized pickup parked with no dents or scrapes to mine or other vehicles.  I would have rated this place average but I reported the ice machine broken and I was told guests have to pay for ice. After I laughed hysterically, the clerk gave me a quarter, but then really, it was broken. It made some noise and dispensed nothing.  When I was leaving, I picked up my dog's piddle pads, and there were cockroaches hiding beneath it.  Just two.  Probably because of the latter I would opt not to stay here again.  Bed was very comfortable, and I slept well, except for someone pounding and screaming at another guest room door late night.  I was sort of expecting something like that to happen, and thank...I opted to stay at this property because they allow dogs and there were some average and good reviews online, and anything else within a reasonable driving distance of quality accommodations is too pricey for my wallet.  Staff is friendly and helpful especially housekeeping.  The front-desk guy gave me options for rooms which was very nice.  Room was as expected for a 1-star motel.  There was a kitchenette with an apartment-sized refrigerator which was perfect for my frozen dog food.  I did not feel uncomfortable in the hood like others mentioned in their reviews.  Ralphs was down the block as well as a NORM's diner.  Parking is tight as I read but even my full-sized pickup parked with no dents or scrapes to mine or other vehicles.  I would have rated this place average but I reported the ice machine broken and I was told guests have to pay for ice. After I laughed hysterically, the clerk gave me a quarter, but then really, it was broken. It made some noise and dispensed nothing.  When I was leaving, I picked up my dog's piddle pads, and there were cockroaches hiding beneath it.  Just two.  Probably because of the latter I would opt not to stay here again.  Bed was very comfortable, and I slept well, except for someone pounding and screaming at another guest room door late night.  I was sort of expecting something like that to happen, and thank goodness nothing worse.More</t>
   </si>
   <si>
+    <t>WelcomeMat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r223459497-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -378,6 +405,9 @@
     <t>From the street, yes, it looks unpleasant but once you find the way in- through the east side of the property, it still looks a bit dodgey in the small back parking area, however entering into the courtyard which is just a nice clean looking pool you should change your mind.I wished I stayed here longer as the pool is really steps from your door and the street noise is masked. The rooms very clean, staff very nice. My son and I felt safe.But the best part? is eating across the street at Norms! Recommended by the front desk guy this place was great, biggest servings and tasty. We ate there 3 or 4 times. It has that old 1960s charm that has not changed over time.If your nearby I recommend it.More</t>
   </si>
   <si>
+    <t>mtjardine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r203022364-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -396,6 +426,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>John W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r193100440-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -417,6 +450,9 @@
     <t>This was another hotel that my company put me up in and purchased through Hotels.com  My opinion of this booking site is that it is a rip-off.  Book directly with the hotel and look for discounts like AAA, etc.This hotel was relatively close to my place of work, so that was about all I enjoyed about it.PROS:Proximity to work.My room was upstairs and located near the pool.There are a lot of restaurants that are close. CONS:Crack in door so thick you could see through it.Parking is in an alley behind the hotel and is kind of tight.  The neighborhood is questionable, but remember, you are in LA.The hotel seemed to have way more week to week people down on their luck than travelers.  Lots of smokers.When I saw the rate on this 'hotel' that my boss paid - it reminded me of how everything in LA and Cali is over-priced.More</t>
   </si>
   <si>
+    <t>David C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r192723400-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -435,6 +471,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Nadejda R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r155648747-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -453,6 +492,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>Miszwade</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r133768831-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -471,6 +513,9 @@
     <t>Though they tell u they are "Dog friendly" once ur dog barks they are ready to kick you out.  Everyone knows Dogs Bark (Just like humans talk) why run a hotel that is "Dog Friendly" but NO BARKS?! that's just foolish! Front desk is rude he said his name is "Johnny' he denied me his Managers Name and Number... What are you scared of?  If your going by "Policy" it shouldn't be a problem to give me her info! Just a heads up oh annnnnnd there is nowhere for ur pups to use the restroom there is dog urine and poop everywhere, smells like urine  when walking to your car.  Lets not forget one of the workers Bought drugs ON the premises while clocked in... Just a little insight on What you are getting yourself into when staying in this place! More</t>
   </si>
   <si>
+    <t>tp21-5649</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r132410440-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -492,6 +537,9 @@
     <t>Our first experience with one of the Hotel 6/Studio 6 chain.  We had our doubts, which were exacerbated when the non-smoking room we were initially given had the obvious smell of past smoke.  There was no arguement however, and we were given another room with upgraded features.  The building was well kept.  The maintenance person came right up when I mentioned at the front desk that a light wasn't working.  Housekeeping was great.  The courtyards are well kept with flowers and nice lighting.  Room was clean and good size.  Not much to look at from the street.  The area is pretty blue collar, but there are restaurants within walking distance and supermarket at the corner. The only complaint we would have are the goofy little thin pillows.  Otherwise, it was one of the best motels we'd been at in more than two weeks of travelling.More</t>
   </si>
   <si>
+    <t>professionalnomad247</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r116322046-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -510,6 +558,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>Dayton H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r111461934-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -537,6 +588,9 @@
     <t>Very nice hotel. Looks kind of dumpy from the street, but once you get inside you are pleasantly surprised. Large clean rooms and nice pool. Really solid hotel. I’ve come to realize that most of the people writing on here are mainly just moaning and groaning because they expect perfection out of a discount room. Was the bed the most comfortable I have ever slept in? No. Was there an occasional loud child in the hallways? Yes. If you are looking for the most amazing room you have ever seen, go spend 300 dollars at the Hilton. IF you are looking for a nice, clean room and being able to spend your hard earned money on fun experiences, rather than somewhere you are just going to be sleeping, then stay here. You won’t regret it.More</t>
   </si>
   <si>
+    <t>Tropicc2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r108964960-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -555,6 +609,9 @@
     <t>Do not stay here! Staff was rude and behind bullet proof glass. Terrible neighborhood, room was located facing Sherman way. Hookers live there along with others, this is more of a dirty apartment complex than a hotel! The pictures on the website was not the same hotel, they lied. Dirty rooms, the amenities listed on the website were not what the hotel had. Horrible experience and would NEVER again stay or recommend to anyone.More</t>
   </si>
   <si>
+    <t>Doug B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r63666440-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -582,6 +639,9 @@
     <t>We skimped to save a few dollars when we went to LA. The neighborhood around the hotel is not good. We got out of the car and saw this guy watching us from the balcony of an apartment next door to this property. That was a little creepy. Once you get inside the courtyard of the hotel, it looks nice enough. We slept OK and didn't notice any bugs. It seemed fairly clean. I wouldn't stay there again just because I didn't feel completely comfortable and would rather pay a little more to stay somewhere better.More</t>
   </si>
   <si>
+    <t>Lab4games</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r35784813-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -600,6 +660,9 @@
     <t>June 2009</t>
   </si>
   <si>
+    <t>travelwoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r15734156-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -621,6 +684,9 @@
     <t>mattress is very nice compaired to extended stay america. somethings very clean and new others dirty and old. the room did not have a fully equipped kiction, and we brought a lot of food to find a fridge and a microwave no dishes/ sink /stove and a VERY old scary microwave. also the TV did not work right the, the internet (im on now) was givin wrong codes first (just annoying) and the room smells like gas, i cant figure out where from but certain spots smell of it worse than others. the front dest will not switch me rooms i have a very bad head ache now. im waiting for my boyfriend to come back. my advice was leave the door open..... but its not in a great area (central for where we need to be but bad area) im alone and 8 1/2 months pregnant. not great customer service.More</t>
   </si>
   <si>
+    <t>NativeCalifGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r3814988-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -637,6 +703,9 @@
   </si>
   <si>
     <t>This is the worst place I ever stayed. Unfortunatly I made the reservation over the phone the night before so I was told I wouldn't get a refund if I cancelled. I didn't worry about that since I had stayed at a Best Value Inn in Williams, Az and it was great. When we got there we had to go down a dark alley to get to the office. There were people laying down in the parking area. We would have left except we had already paid. The hallways smelled like urine. The front desk person was eyeballing and trying to flirt with my daughter. The room was awful. The bathroom was dirty. We had to clean the toilet ourselves before we could use it. Neither one of use was brave enough to step foot in the shower. We wore our shoes in the room and wore our clothes to bed as we were afraid of what might have been in it. There were signs all over the place warning about illegal drug use and prostitues as well as a sign saying you had to pay for the whole night and not just an hour. You had to put a $10 deposit to use the phone and they deducted 52 cents a minute from it for local calls. We left there as quick as we could in the morning. I have stayed in a lot of motels as I like...This is the worst place I ever stayed. Unfortunatly I made the reservation over the phone the night before so I was told I wouldn't get a refund if I cancelled. I didn't worry about that since I had stayed at a Best Value Inn in Williams, Az and it was great. When we got there we had to go down a dark alley to get to the office. There were people laying down in the parking area. We would have left except we had already paid. The hallways smelled like urine. The front desk person was eyeballing and trying to flirt with my daughter. The room was awful. The bathroom was dirty. We had to clean the toilet ourselves before we could use it. Neither one of use was brave enough to step foot in the shower. We wore our shoes in the room and wore our clothes to bed as we were afraid of what might have been in it. There were signs all over the place warning about illegal drug use and prostitues as well as a sign saying you had to pay for the whole night and not just an hour. You had to put a $10 deposit to use the phone and they deducted 52 cents a minute from it for local calls. We left there as quick as we could in the morning. I have stayed in a lot of motels as I like to travel but none of them ever made me feel like I needed a shower after leaving them. After staying here I have started to read reviews before staying anywhere. I am happy to report the best value inn no longer has them listed as one of their motels.More</t>
+  </si>
+  <si>
+    <t>boxjelly</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226148-r3547734-Studio_6_Van_Nuys-Los_Angeles_California.html</t>
@@ -1159,43 +1228,47 @@
       <c r="A2" t="n">
         <v>42595</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1207,56 +1280,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>42595</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1272,56 +1349,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>42595</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1333,56 +1414,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>42595</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1402,50 +1487,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>42595</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -1463,56 +1552,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>42595</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -1532,50 +1625,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>42595</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1595,50 +1692,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>42595</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1656,50 +1757,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>42595</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -1719,50 +1824,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>42595</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -1786,50 +1895,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>42595</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -1853,50 +1966,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>42595</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -1920,50 +2037,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>42595</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -1987,41 +2108,45 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>42595</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -2050,50 +2175,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>42595</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2115,50 +2244,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>42595</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2178,50 +2311,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>42595</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2239,56 +2376,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="X18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>42595</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -2310,56 +2451,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="X19" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>42595</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2381,56 +2526,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="X20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>42595</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2454,50 +2603,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>42595</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>214</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="J22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P22" t="n">
         <v>2</v>
@@ -2521,41 +2674,45 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>42595</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>222</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -2582,41 +2739,45 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>42595</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>229</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="J24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="K24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
@@ -2643,7 +2804,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
